--- a/samples/read-excel/file/excel.xlsx
+++ b/samples/read-excel/file/excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Name</t>
   </si>
@@ -46,6 +46,21 @@
   </si>
   <si>
     <t>avinash@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>rahulk@gmail.com</t>
+  </si>
+  <si>
+    <t>amit</t>
+  </si>
+  <si>
+    <t>UP</t>
   </si>
 </sst>
 </file>
@@ -374,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,10 +442,33 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>856933569</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="D3" r:id="rId2"/>
+    <hyperlink ref="D4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
